--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>문서번호</t>
   </si>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t xml:space="preserve">우리는 지금 개발 프로세스를 배우고 있는 중이다. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ, 내정보, 구독, 앱페이지 기본 틀 html/css 코드 작성</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1449,63 +1453,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1581,9 +1528,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1606,6 +1550,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,11 +1903,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
     <col min="14" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1976,10 +1980,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2193,19 +2197,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2223,17 +2227,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2251,17 +2255,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2279,17 +2283,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2307,17 +2311,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2507,11 +2511,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="57">
+      <c r="F22" s="90">
         <v>45266</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2537,9 +2541,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29934,21 +29938,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="130.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31384,24 +31388,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31593,40 +31597,40 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="76"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="96"/>
+      <c r="C33" s="76"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="76"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="97"/>
+      <c r="C35" s="77"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="37" spans="1:3" ht="16.5" customHeight="1"/>
@@ -31636,22 +31640,22 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="78" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="78" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="78" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="78" t="s">
         <v>109</v>
       </c>
     </row>
@@ -32658,24 +32662,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32734,193 +32738,195 @@
     <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="53"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="53"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="53"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="53"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="60" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="70"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="70"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="70"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="53" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="42"/>
-      <c r="C34" s="88"/>
+      <c r="C34" s="69"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="68" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="42"/>
-      <c r="C35" s="88"/>
+      <c r="C35" s="69"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="68" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="42"/>
-      <c r="C36" s="88"/>
+      <c r="C36" s="69"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="71"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="39" spans="1:3" ht="16.5" customHeight="1"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders\git\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>문서번호</t>
   </si>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>FAQ, 내정보, 구독, 앱페이지 기본 틀 html/css 코드 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 메인화면 볼 수있도록 수정, 아이디 중복 불가 기능 추가, 탈퇴 신청 재확인 기능 추가, 구독내역 테이블 작업</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1314,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1552,6 +1556,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1609,7 +1616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1980,10 +1987,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="80"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2197,19 +2204,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2227,17 +2234,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2255,17 +2262,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2283,17 +2290,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2311,17 +2318,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2511,11 +2518,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="90">
+      <c r="F22" s="91">
         <v>45266</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2541,9 +2548,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29949,10 +29956,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31388,7 +31395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -31402,10 +31409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32662,8 +32669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -32676,10 +32683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32916,14 +32923,16 @@
       <c r="A36" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="99" t="s">
+        <v>111</v>
+      </c>
       <c r="C36" s="69"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A37" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="79" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="71"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="6일" sheetId="2" r:id="rId2"/>
     <sheet name="7일" sheetId="3" r:id="rId3"/>
     <sheet name="8일" sheetId="4" r:id="rId4"/>
+    <sheet name="11일" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="117">
   <si>
     <t>문서번호</t>
   </si>
@@ -374,6 +376,34 @@
   </si>
   <si>
     <t xml:space="preserve">우리는 지금 개발 프로세스를 배우고 있는 중이다. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 09:10~09:30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 필요한 페이지는 총 5개. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5 문의 사항 페이지. 글남기고, 답변주고. 게시판 같은 기능. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디테일 제외, 틀잡는것에 집중. 화요일까지 처리 완료를 위해 집중할 시기. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 크게 틀 잡아논 페이지는, 메인페이지, 구독안내페이지, 문의사항 페이지. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서비스 상세페이지랑 로그인 페이지. 이 두개가 진행되어야 한다. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서류 작성 최신화. 서비스페이지 스크립트 작성해야함. </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1449,61 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1606,6 +1582,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1976,10 +2009,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2193,19 +2226,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2223,17 +2256,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2251,17 +2284,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2279,17 +2312,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2307,17 +2340,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2507,11 +2540,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="57">
+      <c r="F22" s="92">
         <v>45266</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2537,9 +2570,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -29945,10 +29978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31384,7 +31417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -31398,10 +31431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31593,40 +31626,40 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="78"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="96"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="78"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="97"/>
+      <c r="C35" s="79"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="37" spans="1:3" ht="16.5" customHeight="1"/>
@@ -31636,22 +31669,22 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="80" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="80" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="80" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="80" t="s">
         <v>109</v>
       </c>
     </row>
@@ -32672,10 +32705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32734,193 +32767,193 @@
     <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="55"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="62" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="70"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="70"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="70"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="65" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="42"/>
-      <c r="C34" s="88"/>
+      <c r="C34" s="70"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="42"/>
-      <c r="C35" s="88"/>
+      <c r="C35" s="70"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="42"/>
-      <c r="C36" s="88"/>
+      <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="39" spans="1:3" ht="16.5" customHeight="1"/>
@@ -33929,4 +33962,1295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="46" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" style="46" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="99"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="43">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="55"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="54"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="54"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="54"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="54"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A34" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="70"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="70"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A36" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="70"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A37" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D55" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D56" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D57" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D58" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
   <si>
     <t>문서번호</t>
   </si>
@@ -403,7 +403,34 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">서류 작성 최신화. 서비스페이지 스크립트 작성해야함. </t>
+    <t>틀만 잡고, 아직 구현전.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~90프로 완성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 정보수정만. 구독 종료일 표기나 기타는 아직 미구현. 그러므로.. 70% 정도?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">70프로 정도? 아니, 디테일만 잡으면 되니 거의 끝? 링크 연결 남음. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 엔드 페이지 구성 요소 제작</t>
+  </si>
+  <si>
+    <t>프론트 엔드 페이지 구성 요소 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류 작성 최신화. 지도 api 사용. 사용자 구현 앱 기반 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지도 api와 씨름. 크게 성과가 없다. </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1639,6 +1666,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33968,8 +34001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -34076,14 +34109,18 @@
       <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="100">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="52"/>
       <c r="B15" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="55" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
       <c r="A16" s="52"/>
@@ -34097,21 +34134,27 @@
       <c r="B17" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="54" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="54" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
@@ -34169,21 +34212,27 @@
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="44"/>
+      <c r="B28" s="44" t="s">
+        <v>121</v>
+      </c>
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="44" t="s">
+        <v>120</v>
+      </c>
       <c r="C29" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="44" t="s">
+        <v>121</v>
+      </c>
       <c r="C30" s="54" t="s">
         <v>98</v>
       </c>
@@ -34191,7 +34240,7 @@
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>13</v>
@@ -34209,7 +34258,9 @@
       <c r="A34" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="101" t="s">
+        <v>123</v>
+      </c>
       <c r="C34" s="70"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1">

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -17,19 +17,20 @@
     <sheet name="7일" sheetId="3" r:id="rId3"/>
     <sheet name="8일" sheetId="4" r:id="rId4"/>
     <sheet name="11일" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="12일" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="alGCG8hHI9RMmtxTwYX7196EoNOuTwECXiWPODnzzV4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="alGCG8hHI9RMmtxTwYX7196EoNOuTwECXiWPODnzzV4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
   <si>
     <t>문서번호</t>
   </si>
@@ -433,6 +434,18 @@
     <t xml:space="preserve">지도 api와 씨름. 크게 성과가 없다. </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">유저 ui 창 만들기. 총 필요한 창은 7개. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한, 구현 이미지 겉 화면 구성은 재빈이가함.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7개 페이지 이미지만 필요하기에, 무작정 만들기.  -&gt; 세명이서 나눠서 함.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -466,6 +479,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -494,6 +508,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1367,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1611,6 +1626,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1666,12 +1690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2042,10 +2060,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="82"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2259,19 +2277,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2289,17 +2307,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2317,17 +2335,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2345,17 +2363,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2373,17 +2391,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2573,11 +2591,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="92">
+      <c r="F22" s="95">
         <v>45266</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="97"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2603,9 +2621,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -30011,10 +30029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31464,10 +31482,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32738,10 +32756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34001,7 +34019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -34016,10 +34034,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34109,7 +34127,7 @@
       <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="82">
         <v>0.8</v>
       </c>
     </row>
@@ -34258,7 +34276,7 @@
       <c r="A34" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="83" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="70"/>
@@ -35295,6 +35313,1268 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" style="81" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="81" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" style="81" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="102"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="43">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="82"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="55"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A34" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="83"/>
+      <c r="C34" s="70"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="70"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A36" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="70"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A37" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D55" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D56" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D57" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D58" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders\git\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="12일" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="alGCG8hHI9RMmtxTwYX7196EoNOuTwECXiWPODnzzV4="/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>문서번호</t>
   </si>
@@ -444,6 +444,692 @@
   </si>
   <si>
     <t>7개 페이지 이미지만 필요하기에, 무작정 만들기.  -&gt; 세명이서 나눠서 함.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Sticky 이미지 검색 -&gt; 완료</t>
+  </si>
+  <si>
+    <t>- Sticky 멘트 -&gt; 날마다, 언제나 편안하게 원하는 만큼, 날마다 새롭게, 지속가능함, 공공서비스</t>
+  </si>
+  <si>
+    <t>- Thanks for watching : 서비스 설명 or 회사에서 전하고 싶은 메시지 2~3줄</t>
+  </si>
+  <si>
+    <t>A 인프라 유지를 위한 최소한의 비용</t>
+  </si>
+  <si>
+    <t>Q 부정 사용할 경우 해결책</t>
+  </si>
+  <si>
+    <t>A 차량 내부에 카메라를 둬서 AI가 상황을 판단하도록 조치</t>
+  </si>
+  <si>
+    <t>* 메뉴</t>
+  </si>
+  <si>
+    <t>화면 수정</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 영상 멘트 → 모든 사람이 자유롭고 행복하게 이동하는 세상을 만듭니다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 자동차 사진 &amp; 가상의 회사를 설정해서 회사를 설립한 이유, 회사가 제공할 서비스 설명</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구독형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서비스를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택하였는지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>택시는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>탈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>때마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비용을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구독서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>친숙한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가격책정</t>
+    </r>
+  </si>
+  <si>
+    <t>- 회사가 제공할 서비스 (소형, 중형, 대형별 차종 등)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Recent Work : 사용 후기</t>
+  </si>
+  <si>
+    <t>[메인] 하영</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[소개] 성호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[구독] 재빈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[문의] 윤주</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 구독 소개 문의 로그인 / 구독 소개 문의 내정보</t>
+  </si>
+  <si>
+    <t>- 구독에 harbor</t>
+  </si>
+  <si>
+    <t>* 배경 : 흰색 - 로그인 화면 적용 필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>방문자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메인화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가능하도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>불가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>탈퇴페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원탈퇴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>탈퇴완료안내페이지</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 별 헤더 추가, 아이디 찾기 등 폼의 기본 틀 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문자 종류에 따라 메뉴 출력, 비밀번호 재설정 기능 추가,  신청완료 안내 페이지 추가 &amp; service_history 테이블에 데이터 저장 기능, 구독신청 내역 있을 경우 확인가능하도록 작업, 문의게시판 페이지수, 게스트용 문의게시판 작업</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +2068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1635,6 +2321,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1690,6 +2379,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,11 +2759,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
     <col min="14" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2060,10 +2836,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2277,19 +3053,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2307,17 +3083,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2335,17 +3111,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2363,17 +3139,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2391,17 +3167,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2591,11 +3367,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="95">
+      <c r="F22" s="96">
         <v>45266</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2621,9 +3397,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -30018,21 +30794,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="130.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -31468,24 +32244,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32742,24 +33518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32996,14 +33772,18 @@
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="83" t="s">
+        <v>149</v>
+      </c>
       <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="132" t="s">
+        <v>150</v>
+      </c>
       <c r="C37" s="73"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
@@ -34019,25 +34799,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="46" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" style="46" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="1" width="15.109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="46" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="46" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34292,7 +35072,9 @@
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="83" t="s">
+        <v>151</v>
+      </c>
       <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -35313,39 +36095,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="81" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" style="81" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="81"/>
+    <col min="1" max="1" width="15.109375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="108" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="81" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="81" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -35353,7 +36135,7 @@
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="106">
         <v>45271</v>
       </c>
     </row>
@@ -35361,7 +36143,7 @@
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="105" t="s">
         <v>110</v>
       </c>
     </row>
@@ -35369,7 +36151,7 @@
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="105" t="s">
         <v>11</v>
       </c>
     </row>
@@ -35377,7 +36159,7 @@
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="105" t="s">
         <v>13</v>
       </c>
     </row>
@@ -35385,7 +36167,7 @@
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="107" t="s">
         <v>15</v>
       </c>
     </row>
@@ -35395,17 +36177,17 @@
       <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="122"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="123" t="s">
         <v>19</v>
       </c>
     </row>
@@ -35413,235 +36195,389 @@
       <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="124"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="124"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="55"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C15" s="125"/>
+    </row>
+    <row r="16" spans="1:3" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B16" s="111"/>
+      <c r="C16" s="124"/>
+    </row>
+    <row r="17" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="124"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B18" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B19" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B20" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B21" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B22" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="124"/>
+    </row>
+    <row r="23" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="60" t="s">
+      <c r="B23" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="124"/>
+    </row>
+    <row r="24" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="124"/>
+    </row>
+    <row r="25" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="124"/>
+    </row>
+    <row r="26" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="124"/>
+    </row>
+    <row r="27" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="124"/>
+    </row>
+    <row r="28" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="124"/>
+    </row>
+    <row r="29" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="124"/>
+    </row>
+    <row r="30" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="124"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="124"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="124"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+    </row>
+    <row r="33" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="124"/>
+    </row>
+    <row r="34" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="124"/>
+    </row>
+    <row r="35" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="124"/>
+    </row>
+    <row r="36" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="124"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="52"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="52"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A40" s="52"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="61" t="s">
+      <c r="B43" s="109"/>
+      <c r="C43" s="122"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B44" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C44" s="127" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="54" t="s">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A45" s="52"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="54" t="s">
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A46" s="52"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="54" t="s">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A47" s="52"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="124" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65" t="s">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A48" s="63"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="66" t="s">
+    <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="50" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A50" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="69" t="s">
+      <c r="B50" s="118"/>
+      <c r="C50" s="129"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A51" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="70"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="69" t="s">
+      <c r="B51" s="119"/>
+      <c r="C51" s="130"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A52" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="70"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="B52" s="120"/>
+      <c r="C52" s="130"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A53" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="70"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="71" t="s">
+      <c r="B53" s="120"/>
+      <c r="C53" s="130"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A54" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="40" t="s">
+      <c r="B54" s="121"/>
+      <c r="C54" s="131"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A57" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="54" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D55" s="34" t="s">
+    <row r="58" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="65" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="66" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+    </row>
+    <row r="67" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+    </row>
+    <row r="68" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+    </row>
+    <row r="69" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+    </row>
+    <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+    </row>
+    <row r="71" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D71" s="22"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D72" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D56" s="36">
+    <row r="73" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D73" s="36">
         <v>45266</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E73" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D57" s="36">
+    <row r="74" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D74" s="36">
         <v>45266</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E74" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D58" s="38">
+    <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D75" s="38">
         <v>45266</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E75" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="76" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+    </row>
+    <row r="77" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="78" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="79" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="80" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -36563,6 +37499,23 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
+    <row r="1006" ht="16.5" customHeight="1"/>
+    <row r="1007" ht="16.5" customHeight="1"/>
+    <row r="1008" ht="16.5" customHeight="1"/>
+    <row r="1009" ht="16.5" customHeight="1"/>
+    <row r="1010" ht="16.5" customHeight="1"/>
+    <row r="1011" ht="16.5" customHeight="1"/>
+    <row r="1012" ht="16.5" customHeight="1"/>
+    <row r="1013" ht="16.5" customHeight="1"/>
+    <row r="1014" ht="16.5" customHeight="1"/>
+    <row r="1015" ht="16.5" customHeight="1"/>
+    <row r="1016" ht="16.5" customHeight="1"/>
+    <row r="1017" ht="16.5" customHeight="1"/>
+    <row r="1018" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -36579,7 +37532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders\git\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
   <si>
     <t>문서번호</t>
   </si>
@@ -1234,7 +1234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -2064,11 +2064,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2324,63 +2375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2466,6 +2460,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,11 +2837,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2836,10 +2914,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3053,19 +3131,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3083,17 +3161,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3111,17 +3189,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3139,17 +3217,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3167,17 +3245,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="124"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3367,11 +3445,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="96">
+      <c r="F22" s="125">
         <v>45266</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3397,9 +3475,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -30792,23 +30870,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="130.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="130.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32244,24 +32324,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32365,50 +32445,52 @@
       <c r="B16" s="4"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>53</v>
       </c>
@@ -32418,8 +32500,14 @@
       <c r="C26" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D26" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="44" t="s">
         <v>86</v>
@@ -32427,8 +32515,10 @@
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D27" s="36"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="44" t="s">
         <v>87</v>
@@ -32436,8 +32526,10 @@
       <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D28" s="36"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="19"/>
       <c r="B29" s="45" t="s">
         <v>104</v>
@@ -32445,14 +32537,16 @@
       <c r="C29" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="74" t="s">
         <v>13</v>
       </c>
@@ -32521,53 +32615,22 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="53" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D54" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D55" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D56" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D57" s="38">
-        <v>45266</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -33519,23 +33582,24 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33641,112 +33705,128 @@
       </c>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="54"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="54"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C26" s="48"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="134" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="133" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="133" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="133" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D30" s="139"/>
+      <c r="E30" s="138"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
       <c r="A33" s="66" t="s">
         <v>65</v>
@@ -33781,7 +33861,7 @@
       <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="113" t="s">
         <v>150</v>
       </c>
       <c r="C37" s="73"/>
@@ -33801,53 +33881,22 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="54" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D55" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D56" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D57" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D58" s="38">
-        <v>45266</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -34800,24 +34849,24 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="46" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" style="46" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="46"/>
+    <col min="1" max="1" width="15.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="46" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" style="46" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34927,7 +34976,7 @@
       </c>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53" t="s">
         <v>92</v>
@@ -34936,7 +34985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
@@ -34945,7 +34994,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
         <v>112</v>
@@ -34954,50 +35003,52 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D26" s="60"/>
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
@@ -35007,8 +35058,14 @@
       <c r="C27" s="62" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D27" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
         <v>121</v>
@@ -35016,8 +35073,10 @@
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>120</v>
@@ -35025,8 +35084,10 @@
       <c r="C29" s="54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>121</v>
@@ -35034,8 +35095,10 @@
       <c r="C30" s="54" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D30" s="139"/>
+      <c r="E30" s="138"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
         <v>122</v>
@@ -35043,8 +35106,10 @@
       <c r="C31" s="65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
       <c r="A33" s="66" t="s">
         <v>65</v>
@@ -35099,53 +35164,22 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="54" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D55" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D56" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D57" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D58" s="38">
-        <v>45266</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -36097,37 +36131,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="108" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="81" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" style="81" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="81"/>
+    <col min="1" max="1" width="15.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" style="81" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="86" t="s">
         <v>6</v>
       </c>
     </row>
@@ -36135,7 +36169,7 @@
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="87">
         <v>45271</v>
       </c>
     </row>
@@ -36143,7 +36177,7 @@
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="86" t="s">
         <v>110</v>
       </c>
     </row>
@@ -36151,7 +36185,7 @@
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="86" t="s">
         <v>11</v>
       </c>
     </row>
@@ -36159,7 +36193,7 @@
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="86" t="s">
         <v>13</v>
       </c>
     </row>
@@ -36167,7 +36201,7 @@
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="88" t="s">
         <v>15</v>
       </c>
     </row>
@@ -36177,17 +36211,17 @@
       <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="122"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="103"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="104" t="s">
         <v>19</v>
       </c>
     </row>
@@ -36195,45 +36229,45 @@
       <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="105"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="105"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="106"/>
     </row>
     <row r="16" spans="1:3" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="124"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="105"/>
     </row>
     <row r="17" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="105"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="105" t="s">
         <v>133</v>
       </c>
       <c r="D18" s="84"/>
@@ -36242,262 +36276,280 @@
     </row>
     <row r="19" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="105" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="105" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="124"/>
+      <c r="C22" s="105"/>
     </row>
     <row r="23" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="124"/>
+      <c r="C23" s="105"/>
     </row>
     <row r="24" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="52"/>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="105"/>
     </row>
     <row r="25" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="52"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="124"/>
+      <c r="C25" s="105"/>
     </row>
     <row r="26" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="124"/>
+      <c r="C26" s="105"/>
     </row>
     <row r="27" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="124"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="124"/>
+      <c r="C28" s="105"/>
     </row>
     <row r="29" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="105"/>
     </row>
     <row r="30" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="124"/>
+      <c r="C30" s="105"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="124"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="84"/>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="52"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="124"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
     </row>
     <row r="33" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="124"/>
+      <c r="C33" s="105"/>
     </row>
     <row r="34" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="52"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="124"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="52"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="124"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="105"/>
     </row>
     <row r="36" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="52"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="105"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="52"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="84"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="124"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="84"/>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="124"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="124"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="84"/>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="56"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="126"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="84"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="59"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="122"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="108" t="s">
         <v>55</v>
       </c>
+      <c r="D44" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="136" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="52"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="124" t="s">
+      <c r="B45" s="97"/>
+      <c r="C45" s="105" t="s">
         <v>97</v>
       </c>
+      <c r="D45" s="137"/>
+      <c r="E45" s="138"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="A46" s="52"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="124" t="s">
+      <c r="B46" s="97"/>
+      <c r="C46" s="105" t="s">
         <v>62</v>
       </c>
+      <c r="D46" s="137"/>
+      <c r="E46" s="138"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="124" t="s">
+      <c r="B47" s="97"/>
+      <c r="C47" s="105" t="s">
         <v>98</v>
       </c>
+      <c r="D47" s="139"/>
+      <c r="E47" s="138"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="128" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="109" t="s">
         <v>13</v>
       </c>
+      <c r="D48" s="140"/>
+      <c r="E48" s="141"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
       <c r="A50" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="129"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="110"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
       <c r="A51" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="130"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="111"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
       <c r="A52" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="111"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1">
       <c r="A53" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="130"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="111"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A54" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="121"/>
-      <c r="C54" s="131"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="112"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
@@ -36530,46 +36582,12 @@
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
     </row>
-    <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-    </row>
-    <row r="71" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D72" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D73" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D74" s="36">
-        <v>45266</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D75" s="38">
-        <v>45266</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="70" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="71" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="72" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="73" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="74" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="75" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="76" spans="4:5" ht="16.5" customHeight="1">
       <c r="D76" s="84"/>
       <c r="E76" s="84"/>
@@ -37532,7 +37550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders\git\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>문서번호</t>
   </si>
@@ -1234,7 +1234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -2064,62 +2064,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2375,6 +2324,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2460,90 +2466,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2837,11 +2759,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
     <col min="14" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2914,10 +2836,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="115"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3131,19 +3053,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3161,17 +3083,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3189,17 +3111,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3217,17 +3139,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3245,17 +3167,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3445,11 +3367,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="125">
+      <c r="F22" s="96">
         <v>45266</v>
       </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3475,9 +3397,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -30870,25 +30792,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="130.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="130.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32324,24 +32244,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -32445,52 +32365,50 @@
       <c r="B16" s="4"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="4"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="4"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="4"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="4"/>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="4"/>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+    <row r="24" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>53</v>
       </c>
@@ -32500,14 +32418,8 @@
       <c r="C26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="44" t="s">
         <v>86</v>
@@ -32515,10 +32427,8 @@
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="44" t="s">
         <v>87</v>
@@ -32526,10 +32436,8 @@
       <c r="C28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="45" t="s">
         <v>104</v>
@@ -32537,16 +32445,14 @@
       <c r="C29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="74" t="s">
         <v>13</v>
       </c>
@@ -32615,22 +32521,53 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D54" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D55" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D56" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D57" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -33582,24 +33519,23 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33705,128 +33641,112 @@
       </c>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="54"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="54"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="49"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="138"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
       <c r="A33" s="66" t="s">
         <v>65</v>
@@ -33861,7 +33781,7 @@
       <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="132" t="s">
         <v>150</v>
       </c>
       <c r="C37" s="73"/>
@@ -33881,22 +33801,53 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D55" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D56" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D57" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D58" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -34849,24 +34800,24 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="46" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" style="46" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="1" width="15.109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="46" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="46" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34976,7 +34927,7 @@
       </c>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="52"/>
       <c r="B17" s="53" t="s">
         <v>92</v>
@@ -34985,7 +34936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
@@ -34994,7 +34945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
         <v>112</v>
@@ -35003,52 +34954,50 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
       <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="49"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
       <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
@@ -35058,14 +35007,8 @@
       <c r="C27" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
         <v>121</v>
@@ -35073,10 +35016,8 @@
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>120</v>
@@ -35084,10 +35025,8 @@
       <c r="C29" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>121</v>
@@ -35095,10 +35034,8 @@
       <c r="C30" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="138"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
         <v>122</v>
@@ -35106,10 +35043,8 @@
       <c r="C31" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="33" spans="1:3" ht="16.5" customHeight="1">
       <c r="A33" s="66" t="s">
         <v>65</v>
@@ -35164,22 +35099,53 @@
     <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D55" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D56" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D57" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D58" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -36131,37 +36097,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E48"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" style="89" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" style="81" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="81"/>
+    <col min="1" max="1" width="15.109375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="108" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="81" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="81" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -36169,7 +36135,7 @@
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="106">
         <v>45271</v>
       </c>
     </row>
@@ -36177,7 +36143,7 @@
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="105" t="s">
         <v>110</v>
       </c>
     </row>
@@ -36185,7 +36151,7 @@
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="105" t="s">
         <v>11</v>
       </c>
     </row>
@@ -36193,7 +36159,7 @@
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="105" t="s">
         <v>13</v>
       </c>
     </row>
@@ -36201,7 +36167,7 @@
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="107" t="s">
         <v>15</v>
       </c>
     </row>
@@ -36211,17 +36177,17 @@
       <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="122"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="123" t="s">
         <v>19</v>
       </c>
     </row>
@@ -36229,45 +36195,45 @@
       <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="105"/>
+      <c r="C13" s="124"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="105"/>
+      <c r="C14" s="124"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="125"/>
     </row>
     <row r="16" spans="1:3" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="105"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="124"/>
     </row>
     <row r="17" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="124"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="124" t="s">
         <v>133</v>
       </c>
       <c r="D18" s="84"/>
@@ -36276,280 +36242,262 @@
     </row>
     <row r="19" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="124" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="124" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="124" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="105"/>
+      <c r="C22" s="124"/>
     </row>
     <row r="23" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="124"/>
     </row>
     <row r="24" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="52"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="124"/>
     </row>
     <row r="25" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="52"/>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="124"/>
     </row>
     <row r="26" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="124"/>
     </row>
     <row r="27" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="124"/>
     </row>
     <row r="28" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="124"/>
     </row>
     <row r="29" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="124"/>
     </row>
     <row r="30" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="105"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="84"/>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="52"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
     </row>
     <row r="33" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="105"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="52"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="105"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="124"/>
     </row>
     <row r="35" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="52"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="105"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="124"/>
     </row>
     <row r="36" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="52"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="105"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="124"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="52"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="105"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="84"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="105"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="124"/>
       <c r="D38" s="84"/>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="105"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="105"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="124"/>
       <c r="D40" s="84"/>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="56"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="107"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="84"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="59"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="122"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="136" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="52"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="105" t="s">
+      <c r="B45" s="116"/>
+      <c r="C45" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="137"/>
-      <c r="E45" s="138"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="A46" s="52"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="105" t="s">
+      <c r="B46" s="116"/>
+      <c r="C46" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="137"/>
-      <c r="E46" s="138"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="105" t="s">
+      <c r="B47" s="116"/>
+      <c r="C47" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="139"/>
-      <c r="E47" s="138"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="109" t="s">
+      <c r="B48" s="117"/>
+      <c r="C48" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
       <c r="A50" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="110"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="129"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
       <c r="A51" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="130"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
       <c r="A52" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="130"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1">
       <c r="A53" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="101"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="130"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A54" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="112"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="131"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
@@ -36582,12 +36530,46 @@
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
     </row>
-    <row r="70" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="71" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="72" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="73" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="74" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="75" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+    </row>
+    <row r="71" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D71" s="22"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D72" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D73" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D74" s="36">
+        <v>45266</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="D75" s="38">
+        <v>45266</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="76" spans="4:5" ht="16.5" customHeight="1">
       <c r="D76" s="84"/>
       <c r="E76" s="84"/>
@@ -37550,7 +37532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
   <si>
     <t>문서번호</t>
   </si>
@@ -1132,6 +1132,703 @@
     <t>방문자 종류에 따라 메뉴 출력, 비밀번호 재설정 기능 추가,  신청완료 안내 페이지 추가 &amp; service_history 테이블에 데이터 저장 기능, 구독신청 내역 있을 경우 확인가능하도록 작업, 문의게시판 페이지수, 게스트용 문의게시판 작업</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>12-12
+- [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문의하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> css </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- [myinfo] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, input </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">조정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한글로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>닉네임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→한글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구독</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">아니오
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- [writeq] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">버튼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- [modifyq] padding, textarea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">고정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- [findid], [usercheck] css </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2068,7 +2765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2312,16 +3009,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2381,92 +3078,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32244,7 +33010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -33772,7 +34538,7 @@
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>149</v>
       </c>
       <c r="C36" s="70"/>
@@ -33781,7 +34547,7 @@
       <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="84" t="s">
         <v>150</v>
       </c>
       <c r="C37" s="73"/>
@@ -34907,7 +35673,7 @@
       <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="81">
         <v>0.8</v>
       </c>
     </row>
@@ -35056,7 +35822,7 @@
       <c r="A34" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="82" t="s">
         <v>123</v>
       </c>
       <c r="C34" s="70"/>
@@ -35072,7 +35838,7 @@
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>151</v>
       </c>
       <c r="C36" s="70"/>
@@ -36095,414 +36861,392 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1018"/>
+  <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="108" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="81" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" style="81" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="81"/>
+    <col min="1" max="1" width="15.109375" style="108" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="107" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="108" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="108" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="106"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="110"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="113">
         <v>45271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="112" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="112" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="112" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="115" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="122"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="121" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="123"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="111" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="123"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="125"/>
-    </row>
-    <row r="16" spans="1:3" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="124"/>
-    </row>
-    <row r="17" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="C15" s="124"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="122"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="123"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="124"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="112" t="s">
+      <c r="C17" s="123"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="122"/>
+      <c r="B18" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-    </row>
-    <row r="19" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="112" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="122"/>
+      <c r="B19" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="112" t="s">
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="122"/>
+      <c r="B20" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="112" t="s">
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="122"/>
+      <c r="B21" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="112" t="s">
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="122"/>
+      <c r="B22" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="124"/>
-    </row>
-    <row r="23" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="112" t="s">
+      <c r="C22" s="123"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="122"/>
+      <c r="B23" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="124"/>
-    </row>
-    <row r="24" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="108" t="s">
+      <c r="C23" s="123"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="122"/>
+      <c r="B24" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="124"/>
-    </row>
-    <row r="25" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="108" t="s">
+      <c r="C24" s="123"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="122"/>
+      <c r="B25" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="124"/>
-    </row>
-    <row r="26" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="108" t="s">
+      <c r="C25" s="123"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="122"/>
+      <c r="B26" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="124"/>
-    </row>
-    <row r="27" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="112" t="s">
+      <c r="C26" s="123"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="122"/>
+      <c r="B27" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="124"/>
-    </row>
-    <row r="28" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="112" t="s">
+      <c r="C27" s="123"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="122"/>
+      <c r="B28" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="124"/>
-    </row>
-    <row r="29" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="112" t="s">
+      <c r="C28" s="123"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="122"/>
+      <c r="B29" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="124"/>
-    </row>
-    <row r="30" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="112" t="s">
+      <c r="C29" s="123"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="122"/>
+      <c r="B30" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="124"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="111" t="s">
+      <c r="C30" s="123"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="122"/>
+      <c r="B31" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="111" t="s">
+      <c r="C31" s="123"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="122"/>
+      <c r="B32" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-    </row>
-    <row r="33" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="111" t="s">
+      <c r="C32" s="123"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="122"/>
+      <c r="B33" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="124"/>
-    </row>
-    <row r="34" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="124"/>
-    </row>
-    <row r="35" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="124"/>
-    </row>
-    <row r="36" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="124"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="59"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A43" s="60" t="s">
+      <c r="C33" s="123"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A34" s="122"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="123"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="122"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="123"/>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A36" s="122"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="123"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A37" s="122"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="123"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A38" s="122"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="123"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A39" s="122"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="123"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="122"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="123"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="125"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A42" s="128"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A43" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="122"/>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A44" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="133" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="124" t="s">
+    <row r="45" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A45" s="122"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="123" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="124" t="s">
+    <row r="46" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A46" s="122"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="123" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="124" t="s">
+    <row r="47" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A47" s="122"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="123" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="128" t="s">
+    <row r="48" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A48" s="135"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="137" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="129"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="130"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="130"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A53" s="69" t="s">
+      <c r="B52" s="104"/>
+      <c r="C52" s="143"/>
+    </row>
+    <row r="53" spans="1:3" ht="129.6">
+      <c r="A53" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="130"/>
+      <c r="B53" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="143"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="121"/>
-      <c r="C54" s="131"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="146"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="147" t="s">
         <v>73</v>
       </c>
     </row>
@@ -36514,66 +37258,48 @@
     <row r="63" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="64" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="65" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="66" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-    </row>
-    <row r="67" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-    </row>
-    <row r="68" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-    </row>
-    <row r="69" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-    </row>
-    <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-    </row>
+    <row r="66" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="67" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="68" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="69" spans="4:5" ht="16.5" customHeight="1"/>
+    <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="71" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="149"/>
     </row>
     <row r="72" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="151" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D73" s="36">
+      <c r="D73" s="152">
         <v>45266</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="153" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D74" s="36">
+      <c r="D74" s="152">
         <v>45266</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="153" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D75" s="38">
+      <c r="D75" s="154">
         <v>45266</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="155" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-    </row>
+    <row r="76" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="77" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="78" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="79" spans="4:5" ht="16.5" customHeight="1"/>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Folders\git\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git_Down\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="156">
   <si>
     <t>문서번호</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>로그인 , 회원가입, 생성.</t>
-  </si>
-  <si>
-    <t>홈페이지 영상 하단에 사진 삽입, sticky과 relative 등 적용, 영상 편집</t>
   </si>
   <si>
     <t>메인페이지(내정보, 구독신청, 구독정보, 1:1문의 메뉴 구성), 내정보확인 기능, 1:1문의게시판과 문의글 작성 기능 기초작업</t>
@@ -1829,6 +1826,221 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>문의게시판 버그 수정, 구독 페이지와 소개 페이지 레이아웃 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 footer부분에 로그인 생성, 메인 헤더의 로그인 클릭 시 footer 부분의 로그인으로 이동 구현, 구독 페이지 초기화 후 다시 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홈페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하단에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삽입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, sticky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>편집</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의게시판 제작, 요소를 클릭 시 아래 요소들이 아래로 이동하도록 설정, 문의게시판 버그 수정, 로딩창 제거</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2765,7 +2977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3021,70 +3233,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3232,6 +3381,72 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3523,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3602,10 +3817,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="136"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3819,19 +4034,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3849,17 +4064,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="142"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3877,17 +4092,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="142"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3905,17 +4120,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3933,17 +4148,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -4133,11 +4348,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="96">
+      <c r="F22" s="146">
         <v>45266</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="148"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -4163,9 +4378,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -31558,7 +31773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31571,10 +31788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33010,8 +33227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -33024,10 +33241,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33206,7 +33423,7 @@
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>13</v>
@@ -33231,8 +33448,8 @@
       <c r="A33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="77" t="s">
-        <v>101</v>
+      <c r="B33" s="156" t="s">
+        <v>154</v>
       </c>
       <c r="C33" s="78"/>
     </row>
@@ -33241,7 +33458,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="78"/>
     </row>
@@ -33250,7 +33467,7 @@
         <v>71</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="79"/>
     </row>
@@ -33263,22 +33480,22 @@
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1">
       <c r="A39" s="80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="80" t="s">
+    <row r="41" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A41" s="80" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A41" s="80" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1">
       <c r="A42" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" customHeight="1"/>
@@ -34284,8 +34501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -34298,10 +34515,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34506,7 +34723,7 @@
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>13</v>
@@ -34531,7 +34748,9 @@
       <c r="A35" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="82" t="s">
+        <v>155</v>
+      </c>
       <c r="C35" s="70"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
@@ -34539,7 +34758,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="70"/>
     </row>
@@ -34548,7 +34767,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="73"/>
     </row>
@@ -35565,8 +35784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -35580,10 +35799,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -35612,7 +35831,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
@@ -35664,7 +35883,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="54"/>
     </row>
@@ -35683,7 +35902,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
@@ -35699,7 +35918,7 @@
         <v>92</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
@@ -35708,16 +35927,16 @@
         <v>93</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
@@ -35728,21 +35947,21 @@
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
       <c r="A21" s="52"/>
       <c r="B21" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="54"/>
     </row>
@@ -35777,7 +35996,7 @@
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>97</v>
@@ -35786,7 +36005,7 @@
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>62</v>
@@ -35795,7 +36014,7 @@
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="54" t="s">
         <v>98</v>
@@ -35804,7 +36023,7 @@
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>13</v>
@@ -35823,7 +36042,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="70"/>
     </row>
@@ -35831,7 +36050,9 @@
       <c r="A35" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="82" t="s">
+        <v>152</v>
+      </c>
       <c r="C35" s="70"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
@@ -35839,7 +36060,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="70"/>
     </row>
@@ -36863,390 +37084,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="108" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" style="107" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="108" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" style="108" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="108"/>
+    <col min="1" max="1" width="15.109375" style="87" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="86" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="86" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="87" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="87" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="91" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="92">
         <v>45271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="112" t="s">
-        <v>110</v>
+      <c r="B5" s="91" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="91" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="94" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="100" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="102"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="101"/>
+      <c r="B14" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="102"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="101"/>
+      <c r="B15" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="123"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="83" t="s">
+      <c r="C15" s="103"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="101"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="102"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="102"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="101"/>
+      <c r="B18" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="101"/>
+      <c r="B19" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="123"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="83" t="s">
-        <v>125</v>
+      <c r="C19" s="102" t="s">
+        <v>145</v>
       </c>
-      <c r="C15" s="124"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="123"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="122" t="s">
-        <v>134</v>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="101"/>
+      <c r="B20" s="83" t="s">
+        <v>127</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="C20" s="102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="101"/>
+      <c r="B22" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="123"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="83" t="s">
+      <c r="C22" s="102"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="101"/>
+      <c r="B23" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>133</v>
+      <c r="C23" s="102"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="101"/>
+      <c r="B24" s="86" t="s">
+        <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="83" t="s">
-        <v>127</v>
+      <c r="C24" s="102"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="86" t="s">
+        <v>137</v>
       </c>
-      <c r="C19" s="123" t="s">
-        <v>146</v>
+      <c r="C25" s="102"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="101"/>
+      <c r="B26" s="86" t="s">
+        <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="83" t="s">
+      <c r="C26" s="102"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="101"/>
+      <c r="B27" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="123" t="s">
-        <v>148</v>
+      <c r="C27" s="102"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="101"/>
+      <c r="B28" s="83" t="s">
+        <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="83" t="s">
+      <c r="C28" s="102"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="101"/>
+      <c r="B29" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="102"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="101"/>
+      <c r="B30" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="102"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="101"/>
+      <c r="B31" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="102"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="101"/>
+      <c r="B32" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="123"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="123"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="122"/>
-      <c r="B24" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="123"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="123"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="123"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="123"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="123"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="123"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="123"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="123"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="122"/>
-      <c r="B32" s="83" t="s">
+      <c r="C32" s="102"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="101"/>
+      <c r="B33" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="123"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="123"/>
+      <c r="C33" s="102"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="122"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="83"/>
-      <c r="C34" s="123"/>
+      <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="122"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="83"/>
-      <c r="C35" s="123"/>
+      <c r="C35" s="102"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="122"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="83"/>
-      <c r="C36" s="123"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A37" s="122"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="83"/>
-      <c r="C37" s="123"/>
+      <c r="C37" s="102"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A38" s="122"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="123"/>
+      <c r="C38" s="102"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="122"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="83"/>
-      <c r="C39" s="123"/>
+      <c r="C39" s="102"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A40" s="122"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="83"/>
-      <c r="C40" s="123"/>
+      <c r="C40" s="102"/>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
     </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="118"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="133" t="s">
+      <c r="C44" s="112" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A45" s="122"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="123" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A46" s="122"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="123" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="102" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A47" s="122"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="123" t="s">
+      <c r="A47" s="101"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A48" s="135"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="137" t="s">
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="50" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A50" s="138" t="s">
+      <c r="A50" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="139"/>
-      <c r="C50" s="140"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A51" s="141" t="s">
+      <c r="A51" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="143"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="122"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="143"/>
+      <c r="B52" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="122"/>
     </row>
     <row r="53" spans="1:3" ht="129.6">
-      <c r="A53" s="141" t="s">
+      <c r="A53" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="104" t="s">
-        <v>152</v>
+      <c r="B53" s="85" t="s">
+        <v>151</v>
       </c>
-      <c r="C53" s="143"/>
+      <c r="C53" s="122"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="144" t="s">
+      <c r="A54" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="145"/>
-      <c r="C54" s="146"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="125"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A57" s="147" t="s">
+      <c r="A57" s="126" t="s">
         <v>73</v>
       </c>
     </row>
@@ -37264,38 +37487,38 @@
     <row r="69" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="71" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D71" s="148"/>
-      <c r="E71" s="149"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="128"/>
     </row>
     <row r="72" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D72" s="150" t="s">
+      <c r="D72" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="151" t="s">
+      <c r="E72" s="130" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D73" s="152">
+      <c r="D73" s="131">
         <v>45266</v>
       </c>
-      <c r="E73" s="153" t="s">
+      <c r="E73" s="132" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D74" s="152">
+      <c r="D74" s="131">
         <v>45266</v>
       </c>
-      <c r="E74" s="153" t="s">
+      <c r="E74" s="132" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D75" s="154">
+      <c r="D75" s="133">
         <v>45266</v>
       </c>
-      <c r="E75" s="155" t="s">
+      <c r="E75" s="134" t="s">
         <v>64</v>
       </c>
     </row>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git_Down\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="8일" sheetId="4" r:id="rId4"/>
     <sheet name="11일" sheetId="6" r:id="rId5"/>
     <sheet name="12일" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="14일" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
   <si>
     <t>문서번호</t>
   </si>
@@ -1126,10 +1126,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>방문자 종류에 따라 메뉴 출력, 비밀번호 재설정 기능 추가,  신청완료 안내 페이지 추가 &amp; service_history 테이블에 데이터 저장 기능, 구독신청 내역 있을 경우 확인가능하도록 작업, 문의게시판 페이지수, 게스트용 문의게시판 작업</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>12-12
 - [</t>
@@ -2039,6 +2035,489 @@
   </si>
   <si>
     <t>문의게시판 제작, 요소를 클릭 시 아래 요소들이 아래로 이동하도록 설정, 문의게시판 버그 수정, 로딩창 제거</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문자 종류에 따라 메뉴 출력, 비밀번호 재설정 기능 추가,  
+신청완료 안내 페이지 추가 &amp; service_history 테이블에 데이터 저장 기능, 
+구독신청 내역 있을 경우 확인가능하도록 작업, 문의게시판 페이지수, 게스트용 문의게시판 작업</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 14일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[페이지 세부 디자인 변경] 성호, 윤주, 재빈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[서류 작성] 성호, 하영</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[모바일 UI] 하영</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>들어갈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출발지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도착지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>배차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만들기
+시나리오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 엔드 페이지 구성 요소 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 엔드 페이지 구성 요소 제작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트/백 엔드 페이지 구성 요소 제작</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2977,7 +3456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3350,9 +3829,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3381,6 +3857,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3446,7 +3925,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -33448,8 +33930,8 @@
       <c r="A33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="156" t="s">
-        <v>154</v>
+      <c r="B33" s="134" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="78"/>
     </row>
@@ -34749,7 +35231,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="70"/>
     </row>
@@ -35782,13 +36264,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="122.6640625" style="46" customWidth="1"/>
@@ -35798,19 +36280,19 @@
     <col min="27" max="16384" width="14.44140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="152" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="153"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:3" ht="17.399999999999999">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -35818,7 +36300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.399999999999999">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -35826,7 +36308,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+    <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -35834,7 +36316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+    <row r="6" spans="1:3" ht="17.399999999999999">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -35842,7 +36324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+    <row r="7" spans="1:3" ht="17.399999999999999">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -35850,7 +36332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
@@ -35858,16 +36340,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1"/>
+    <row r="11" spans="1:3" ht="17.399999999999999">
       <c r="A11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+    <row r="12" spans="1:3" ht="17.399999999999999">
       <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
@@ -35878,7 +36359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+    <row r="13" spans="1:3" ht="17.399999999999999">
       <c r="A13" s="52" t="s">
         <v>20</v>
       </c>
@@ -35887,7 +36368,7 @@
       </c>
       <c r="C13" s="54"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+    <row r="14" spans="1:3" ht="17.399999999999999">
       <c r="A14" s="52"/>
       <c r="B14" s="53" t="s">
         <v>89</v>
@@ -35896,7 +36377,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+    <row r="15" spans="1:3" ht="17.399999999999999">
       <c r="A15" s="52"/>
       <c r="B15" s="53" t="s">
         <v>91</v>
@@ -35905,14 +36386,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+    <row r="16" spans="1:3" ht="17.399999999999999">
       <c r="A16" s="52"/>
       <c r="B16" s="53" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    <row r="17" spans="1:3" ht="17.399999999999999">
       <c r="A17" s="52"/>
       <c r="B17" s="53" t="s">
         <v>92</v>
@@ -35921,7 +36402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    <row r="18" spans="1:3" ht="17.399999999999999">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
         <v>93</v>
@@ -35930,7 +36411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    <row r="19" spans="1:3" ht="17.399999999999999">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
         <v>111</v>
@@ -35939,50 +36420,50 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    <row r="20" spans="1:3" ht="17.399999999999999">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="17.399999999999999">
       <c r="A21" s="52"/>
       <c r="B21" s="53" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="17.399999999999999">
       <c r="A22" s="52"/>
       <c r="B22" s="53" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    <row r="23" spans="1:3" ht="17.399999999999999">
       <c r="A23" s="52"/>
       <c r="B23" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+    <row r="26" spans="1:3" ht="17.399999999999999">
       <c r="A26" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="49"/>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+    <row r="27" spans="1:3" ht="17.399999999999999">
       <c r="A27" s="61" t="s">
         <v>53</v>
       </c>
@@ -35993,16 +36474,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+    <row r="28" spans="1:3" ht="17.399999999999999">
       <c r="A28" s="52"/>
       <c r="B28" s="44" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+    <row r="29" spans="1:3" ht="17.399999999999999">
       <c r="A29" s="52"/>
       <c r="B29" s="44" t="s">
         <v>119</v>
@@ -36011,7 +36492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+    <row r="30" spans="1:3" ht="17.399999999999999">
       <c r="A30" s="52"/>
       <c r="B30" s="44" t="s">
         <v>120</v>
@@ -36020,7 +36501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:3" ht="18" thickBot="1">
       <c r="A31" s="63"/>
       <c r="B31" s="64" t="s">
         <v>121</v>
@@ -36029,15 +36510,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+    <row r="32" spans="1:3" ht="15" thickBot="1"/>
+    <row r="33" spans="1:3">
       <c r="A33" s="66" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="68"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+    <row r="34" spans="1:3">
       <c r="A34" s="69" t="s">
         <v>13</v>
       </c>
@@ -36046,56 +36527,42 @@
       </c>
       <c r="C34" s="70"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+    <row r="35" spans="1:3">
       <c r="A35" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="70"/>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+    <row r="36" spans="1:3" ht="43.2">
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="82" t="s">
-        <v>150</v>
+      <c r="B36" s="156" t="s">
+        <v>155</v>
       </c>
       <c r="C36" s="70"/>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:3" ht="15" thickBot="1">
       <c r="A37" s="71" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+    <row r="40" spans="1:3">
       <c r="A40" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="49" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="50" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="51" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="52" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="53" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="54" spans="4:5" ht="16.5" customHeight="1">
+    <row r="53" spans="4:5" ht="15" thickBot="1"/>
+    <row r="54" spans="4:5" ht="17.399999999999999">
       <c r="D54" s="22"/>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="4:5" ht="16.5" customHeight="1">
+    <row r="55" spans="4:5" ht="17.399999999999999">
       <c r="D55" s="34" t="s">
         <v>56</v>
       </c>
@@ -36103,7 +36570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="4:5" ht="16.5" customHeight="1">
+    <row r="56" spans="4:5" ht="17.399999999999999">
       <c r="D56" s="36">
         <v>45266</v>
       </c>
@@ -36111,7 +36578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="4:5" ht="16.5" customHeight="1">
+    <row r="57" spans="4:5" ht="17.399999999999999">
       <c r="D57" s="36">
         <v>45266</v>
       </c>
@@ -36119,7 +36586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="58" spans="4:5" ht="18" thickBot="1">
       <c r="D58" s="38">
         <v>45266</v>
       </c>
@@ -36127,949 +36594,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="60" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="61" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="62" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="63" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="64" spans="4:5" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
-    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -37084,8 +36608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -37400,14 +36924,18 @@
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1">
       <c r="A45" s="101"/>
-      <c r="B45" s="113"/>
+      <c r="B45" s="113" t="s">
+        <v>163</v>
+      </c>
       <c r="C45" s="102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" customHeight="1">
       <c r="A46" s="101"/>
-      <c r="B46" s="113"/>
+      <c r="B46" s="113" t="s">
+        <v>164</v>
+      </c>
       <c r="C46" s="102" t="s">
         <v>62</v>
       </c>
@@ -37446,7 +36974,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="122"/>
     </row>
@@ -37455,7 +36983,7 @@
         <v>69</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="122"/>
     </row>
@@ -37463,13 +36991,15 @@
       <c r="A54" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="124"/>
-      <c r="C54" s="125"/>
+      <c r="B54" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="124"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="56" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="57" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="125" t="s">
         <v>73</v>
       </c>
     </row>
@@ -37487,38 +37017,38 @@
     <row r="69" spans="4:5" ht="16.5" customHeight="1"/>
     <row r="70" spans="4:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="71" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D71" s="127"/>
-      <c r="E71" s="128"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="127"/>
     </row>
     <row r="72" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D72" s="129" t="s">
+      <c r="D72" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="130" t="s">
+      <c r="E72" s="129" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D73" s="131">
+      <c r="D73" s="130">
         <v>45266</v>
       </c>
-      <c r="E73" s="132" t="s">
+      <c r="E73" s="131" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D74" s="131">
+      <c r="D74" s="130">
         <v>45266</v>
       </c>
-      <c r="E74" s="132" t="s">
+      <c r="E74" s="131" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D75" s="133">
+      <c r="D75" s="132">
         <v>45266</v>
       </c>
-      <c r="E75" s="134" t="s">
+      <c r="E75" s="133" t="s">
         <v>64</v>
       </c>
     </row>
@@ -38477,12 +38007,402 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="87" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" style="86" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="86" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="87" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" style="87" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="155"/>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
+      <c r="A2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="89"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999">
+      <c r="A3" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999">
+      <c r="A4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="A5" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999">
+      <c r="A6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999">
+      <c r="A7" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickBot="1">
+      <c r="A8" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1"/>
+    <row r="11" spans="1:3" ht="34.799999999999997">
+      <c r="A11" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999">
+      <c r="A12" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999">
+      <c r="A13" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="102"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999">
+      <c r="A14" s="101"/>
+      <c r="B14" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="102"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999">
+      <c r="A15" s="101"/>
+      <c r="B15" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="103"/>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999">
+      <c r="A16" s="101"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="102"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999">
+      <c r="A17" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="102"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999">
+      <c r="A18" s="101"/>
+      <c r="B18" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.799999999999997">
+      <c r="A19" s="101"/>
+      <c r="B19" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999">
+      <c r="A20" s="101"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.799999999999997">
+      <c r="A21" s="101"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.399999999999999">
+      <c r="A22" s="101"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="102"/>
+    </row>
+    <row r="23" spans="1:3" ht="17.399999999999999">
+      <c r="A23" s="101"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="102"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999">
+      <c r="A24" s="101"/>
+      <c r="C24" s="102"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999">
+      <c r="A25" s="101"/>
+      <c r="C25" s="102"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999">
+      <c r="A26" s="101"/>
+      <c r="C26" s="102"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999">
+      <c r="A27" s="101"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="102"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999">
+      <c r="A28" s="101"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="102"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999">
+      <c r="A29" s="101"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="102"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999">
+      <c r="A30" s="101"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="102"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999">
+      <c r="A31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="102"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999">
+      <c r="A32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="102"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999">
+      <c r="A33" s="101"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="102"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.399999999999999">
+      <c r="A34" s="101"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="102"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.399999999999999">
+      <c r="A35" s="101"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="102"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.399999999999999">
+      <c r="A36" s="101"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="102"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.399999999999999">
+      <c r="A37" s="101"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="102"/>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999">
+      <c r="A38" s="101"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="102"/>
+    </row>
+    <row r="39" spans="1:3" ht="17.399999999999999">
+      <c r="A39" s="101"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="102"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999">
+      <c r="A40" s="101"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="102"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999">
+      <c r="A43" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999">
+      <c r="A44" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999">
+      <c r="A45" s="101"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999">
+      <c r="A46" s="101"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999">
+      <c r="A47" s="101"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" thickBot="1">
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1"/>
+    <row r="50" spans="1:3">
+      <c r="A50" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="121"/>
+      <c r="C51" s="122"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="121"/>
+      <c r="C52" s="122"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="122"/>
+    </row>
+    <row r="54" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A54" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="124"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="125" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" ht="15" thickBot="1"/>
+    <row r="71" spans="4:5" ht="17.399999999999999">
+      <c r="D71" s="126"/>
+      <c r="E71" s="127"/>
+    </row>
+    <row r="72" spans="4:5" ht="34.799999999999997">
+      <c r="D72" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="129" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" ht="17.399999999999999">
+      <c r="D73" s="130">
+        <v>45266</v>
+      </c>
+      <c r="E73" s="131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="17.399999999999999">
+      <c r="D74" s="130">
+        <v>45266</v>
+      </c>
+      <c r="E74" s="131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="18" thickBot="1">
+      <c r="D75" s="132">
+        <v>45266</v>
+      </c>
+      <c r="E75" s="133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
+++ b/프로젝트 서류/1.회의록(PJE_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\프로젝트 서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Git_Down\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>문서번호</t>
   </si>
@@ -2520,6 +2520,10 @@
     <t>프론트/백 엔드 페이지 구성 요소 제작</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>구독 페이지 제작, 버그 찾음(구독이 Basic일 때 Premium으로 변경 시 실패, 맨 처음 로그인 시 값을 받지 못하는 문제)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3862,6 +3866,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3923,12 +3933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4299,10 +4303,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="135" t="s">
+      <c r="K3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="136"/>
+      <c r="L3" s="138"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -4516,19 +4520,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -4546,17 +4550,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -4574,17 +4578,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -4602,17 +4606,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="142"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -4630,17 +4634,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="147"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -4830,11 +4834,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="146">
+      <c r="F22" s="148">
         <v>45266</v>
       </c>
-      <c r="G22" s="147"/>
-      <c r="H22" s="148"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="150"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -4860,9 +4864,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="153"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -32270,10 +32274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -33723,10 +33727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -34997,10 +35001,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -36281,10 +36285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" s="13" t="s">
@@ -36540,7 +36544,7 @@
       <c r="A36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="135" t="s">
         <v>155</v>
       </c>
       <c r="C36" s="70"/>
@@ -36608,7 +36612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -36623,10 +36627,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="157"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2" s="88" t="s">
@@ -36991,7 +36995,7 @@
       <c r="A54" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="136" t="s">
         <v>160</v>
       </c>
       <c r="C54" s="124"/>
@@ -38009,8 +38013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -38024,10 +38028,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="157"/>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" s="88" t="s">
@@ -38338,7 +38342,9 @@
       <c r="A52" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="121"/>
+      <c r="B52" s="121" t="s">
+        <v>165</v>
+      </c>
       <c r="C52" s="122"/>
     </row>
     <row r="53" spans="1:3">
@@ -38352,7 +38358,7 @@
       <c r="A54" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="136" t="s">
         <v>161</v>
       </c>
       <c r="C54" s="124"/>
@@ -38405,5 +38411,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>